--- a/biology/Médecine/Liste_de_personnalités_atteintes_de_nanisme/Liste_de_personnalités_atteintes_de_nanisme.xlsx
+++ b/biology/Médecine/Liste_de_personnalités_atteintes_de_nanisme/Liste_de_personnalités_atteintes_de_nanisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste suivante répertorie les personnalités atteintes de nanisme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,25 +525,98 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bouffons et nains de cour
-Seneb, nain  officiel de la cour de l'Ancien Empire égyptien.
+          <t>Bouffons et nains de cour</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Seneb, nain  officiel de la cour de l'Ancien Empire égyptien.
 Nicolas Ferry, surnommé Bébé par Stanislas Leszczyński.
 Comte Józef Boruwłaski.
 Pierre Hervé, nain officiel de la cour de Louis-le-Grand.
 Helena Antonia, dame de compagnie de Constance d'Autriche.
-Jeffrey Hudson (en) (1619-1682), nain de Charles Ier et d'Henriette de France, 0,45 m à 18 ans, 0,47 m à 30 ans, 1,162 m à sa mort[1].
-Triboulet nain de François Ier[2].
-Grand-Jean nain de Henri II[2].
-Jean Etrix, nain réputé pour sa finesse d'esprit, possédé par le Duc de Parme (vers 1592)[2].
-Phénomène de foire, nains de cirque et de spectacle
-Charles Sherwood Stratton, connu sous le surnom de Général Tom Pouce.
+Jeffrey Hudson (en) (1619-1682), nain de Charles Ier et d'Henriette de France, 0,45 m à 18 ans, 0,47 m à 30 ans, 1,162 m à sa mort.
+Triboulet nain de François Ier.
+Grand-Jean nain de Henri II.
+Jean Etrix, nain réputé pour sa finesse d'esprit, possédé par le Duc de Parme (vers 1592).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phénomène de foire, nains de cirque et de spectacle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charles Sherwood Stratton, connu sous le surnom de Général Tom Pouce.
 Lavinia Warren, femme de Charles Sherwood Stratton
 Harry Earles et ses sœurs Grace, Daisy et Tiny
 La famille Ovitz
 Spidi, nom de scène de Peter Wetzel, clown suisse
-Dylan Postl, connu sous le nom de Hornswoggle (WWE), catcheur
-Comédiens
-Michael J. Anderson
+Dylan Postl, connu sous le nom de Hornswoggle (WWE), catcheur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comédiens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Michael J. Anderson
 Kenny Baker, interprète original de R2-D2
 Billy Barty, aussi fondateur de l'association Little People of America.
 Désiré Bastareaud, célèbre pour son rôle de Giant Coocoo, dans la série Le Miel et les Abeilles.
@@ -554,30 +639,200 @@
 Hervé Villechaize
 Weng Weng
 Danny Woodburn
-Ben Woolf
-Animateurs
-Jason « Wee Man » Acuña, animateur dans l'émission Jackass
+Ben Woolf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Animateurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jason « Wee Man » Acuña, animateur dans l'émission Jackass
 André Bouchet, Passe-Partout dans Fort Boyard
 Anthony Laborde, Passe-Muraille dans le jeu télévisé Fort Boyard
-Alain Prévost, Passe-Temps dans le jeu télévisé Fort Boyard
-Artistes
-Bushwick Bill, rappeur américain
+Alain Prévost, Passe-Temps dans le jeu télévisé Fort Boyard</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Artistes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bushwick Bill, rappeur américain
 Joe C., rappeur américain
 François de Cuvilliés l'Ancien, architecte
 Alexander Pope, poète anglais
 Henri de Toulouse-Lautrec, peintre français
 Michel Petrucciani, pianiste et compositeur de jazz.
-Lucía Zárate, artiste mexicaine
-Sportifs
-Eddie Gaedel, joueur de baseball.
+Lucía Zárate, artiste mexicaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sportifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eddie Gaedel, joueur de baseball.
 Ellie Simmonds, nageuse.
 Olivia Broome, haltérophile
 Maisie Summers-Newton, nageuse.
-Rico Emanuel Abreu, pilote de stock-car.
-Dirigeants associatifs
-Élisabeth Fuchs, pionnière du scoutisme féminin et fondatrice d'un foyer de jeunes filles.
-Religieux
-Jean Colobos, saint catholique et orthodoxe.</t>
+Rico Emanuel Abreu, pilote de stock-car.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dirigeants associatifs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Élisabeth Fuchs, pionnière du scoutisme féminin et fondatrice d'un foyer de jeunes filles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_personnalités_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_personnalit%C3%A9s_atteintes_de_nanisme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Religieux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jean Colobos, saint catholique et orthodoxe.</t>
         </is>
       </c>
     </row>
